--- a/CATALEG.xlsx
+++ b/CATALEG.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Full1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full1!$A$1:$E$3280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full1!$A$1:$F$3280</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16392" uniqueCount="3784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16393" uniqueCount="3785">
   <si>
     <t>domini</t>
   </si>
@@ -11374,6 +11374,9 @@
   </si>
   <si>
     <t>Anticuerpos antiTPO</t>
+  </si>
+  <si>
+    <t>Comp_DM</t>
   </si>
 </sst>
 </file>
@@ -11405,7 +11408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -11428,14 +11431,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11751,18 +11766,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E3280"/>
+  <dimension ref="A1:F3280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F3112" sqref="F3112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11778,8 +11797,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11796,7 +11818,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11813,7 +11835,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11830,7 +11852,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11847,7 +11869,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11864,7 +11886,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11881,7 +11903,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11898,7 +11920,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11915,7 +11937,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11932,7 +11954,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11949,7 +11971,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11966,7 +11988,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2601</v>
       </c>
@@ -11983,7 +12005,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2601</v>
       </c>
@@ -12000,7 +12022,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2601</v>
       </c>
@@ -12017,7 +12039,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15417,7 +15439,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15434,7 +15456,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15451,7 +15473,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15468,7 +15490,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15485,7 +15507,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15502,7 +15524,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15519,7 +15541,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15536,7 +15558,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15553,7 +15575,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15570,7 +15592,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15587,7 +15609,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15604,7 +15626,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15621,7 +15643,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15638,7 +15660,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15655,7 +15677,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15672,7 +15694,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15689,7 +15711,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15706,7 +15728,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15723,7 +15745,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15740,7 +15762,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15757,7 +15779,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15774,7 +15796,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15791,7 +15813,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15808,7 +15830,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15825,7 +15847,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15842,7 +15864,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15859,7 +15881,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15876,7 +15898,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15893,7 +15915,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15910,7 +15932,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15927,7 +15949,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15944,7 +15966,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15961,7 +15983,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15978,7 +16000,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>2601</v>
       </c>
@@ -15995,7 +16017,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16012,7 +16034,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16029,7 +16051,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16046,7 +16068,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16063,7 +16085,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16080,7 +16102,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16097,7 +16119,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16114,7 +16136,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16131,7 +16153,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16148,7 +16170,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16165,7 +16187,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16182,7 +16204,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16199,7 +16221,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16216,7 +16238,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16233,7 +16255,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16250,7 +16272,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16267,7 +16289,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16284,7 +16306,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16301,7 +16323,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16318,7 +16340,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16335,7 +16357,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16352,7 +16374,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16369,7 +16391,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16386,7 +16408,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16403,7 +16425,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16420,7 +16442,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16437,7 +16459,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16454,7 +16476,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16471,7 +16493,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16488,7 +16510,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16505,7 +16527,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16522,7 +16544,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16539,7 +16561,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16556,7 +16578,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16573,7 +16595,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16590,7 +16612,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16607,7 +16629,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16624,7 +16646,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16641,7 +16663,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16658,7 +16680,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16675,7 +16697,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16692,7 +16714,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16709,7 +16731,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16726,7 +16748,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16743,7 +16765,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16760,7 +16782,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16777,7 +16799,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16794,7 +16816,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16811,7 +16833,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16828,7 +16850,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16845,7 +16867,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16862,7 +16884,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16879,7 +16901,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16896,7 +16918,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16913,7 +16935,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16930,7 +16952,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16947,7 +16969,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16964,7 +16986,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16981,7 +17003,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>2601</v>
       </c>
@@ -16998,7 +17020,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17015,7 +17037,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17032,7 +17054,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17049,7 +17071,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17066,7 +17088,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17083,7 +17105,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17100,7 +17122,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17117,7 +17139,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17134,7 +17156,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17151,7 +17173,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17168,7 +17190,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17185,7 +17207,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17202,7 +17224,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17219,7 +17241,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17236,7 +17258,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17253,7 +17275,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17270,7 +17292,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17287,7 +17309,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17304,7 +17326,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17321,7 +17343,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17338,7 +17360,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17355,7 +17377,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17372,7 +17394,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17389,7 +17411,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17406,7 +17428,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17423,7 +17445,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17440,7 +17462,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17457,7 +17479,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17474,7 +17496,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17491,7 +17513,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17508,7 +17530,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17525,7 +17547,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17542,7 +17564,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17559,7 +17581,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17576,7 +17598,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17593,7 +17615,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17610,7 +17632,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17627,7 +17649,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17644,7 +17666,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17661,7 +17683,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17678,7 +17700,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17695,7 +17717,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17712,7 +17734,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17729,7 +17751,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17746,7 +17768,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17763,7 +17785,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17780,7 +17802,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17797,7 +17819,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17814,7 +17836,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17831,7 +17853,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17848,7 +17870,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17865,7 +17887,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17882,7 +17904,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17899,7 +17921,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17916,7 +17938,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17933,7 +17955,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17950,7 +17972,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17967,7 +17989,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>2601</v>
       </c>
@@ -17984,7 +18006,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18001,7 +18023,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18018,7 +18040,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18035,7 +18057,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18052,7 +18074,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18069,7 +18091,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18086,7 +18108,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18103,7 +18125,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18120,7 +18142,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18137,7 +18159,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18154,7 +18176,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18171,7 +18193,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18188,7 +18210,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18205,7 +18227,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18222,7 +18244,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18239,7 +18261,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18256,7 +18278,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18273,7 +18295,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18290,7 +18312,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18307,7 +18329,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18324,7 +18346,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18341,7 +18363,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18358,7 +18380,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18375,7 +18397,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18392,7 +18414,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18409,7 +18431,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18426,7 +18448,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18443,7 +18465,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18460,7 +18482,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18477,7 +18499,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18494,7 +18516,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18511,7 +18533,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18528,7 +18550,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18545,7 +18567,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18562,7 +18584,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18579,7 +18601,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18596,7 +18618,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18613,7 +18635,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18630,7 +18652,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18647,7 +18669,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18664,7 +18686,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18681,7 +18703,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18698,7 +18720,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18715,7 +18737,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18732,7 +18754,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18749,7 +18771,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18766,7 +18788,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18783,7 +18805,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18800,7 +18822,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18817,7 +18839,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18834,7 +18856,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18851,7 +18873,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18868,7 +18890,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18885,7 +18907,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18902,7 +18924,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18919,7 +18941,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18936,7 +18958,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18953,7 +18975,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18970,7 +18992,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>2601</v>
       </c>
@@ -18987,7 +19009,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19004,7 +19026,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19021,7 +19043,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19038,7 +19060,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19055,7 +19077,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19072,7 +19094,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19089,7 +19111,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19106,7 +19128,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19123,7 +19145,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19140,7 +19162,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19157,7 +19179,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19174,7 +19196,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19191,7 +19213,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19208,7 +19230,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19225,7 +19247,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19242,7 +19264,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19259,7 +19281,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19276,7 +19298,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19293,7 +19315,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19310,7 +19332,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19327,7 +19349,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19344,7 +19366,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19361,7 +19383,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19378,7 +19400,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19395,7 +19417,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19412,7 +19434,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19429,7 +19451,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19446,7 +19468,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19463,7 +19485,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19480,7 +19502,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19497,7 +19519,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19514,7 +19536,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19531,7 +19553,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19548,7 +19570,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19565,7 +19587,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19582,7 +19604,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19599,7 +19621,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19616,7 +19638,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19633,7 +19655,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19650,7 +19672,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19667,7 +19689,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19684,7 +19706,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19701,7 +19723,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19718,7 +19740,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19735,7 +19757,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19752,7 +19774,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19769,7 +19791,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19786,7 +19808,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19803,7 +19825,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19820,7 +19842,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19837,7 +19859,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19854,7 +19876,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19871,7 +19893,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19888,7 +19910,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19905,7 +19927,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19922,7 +19944,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19939,7 +19961,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19956,7 +19978,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19973,7 +19995,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>2601</v>
       </c>
@@ -19990,7 +20012,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20007,7 +20029,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20024,7 +20046,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20041,7 +20063,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20058,7 +20080,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20075,7 +20097,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20092,7 +20114,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20109,7 +20131,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20126,7 +20148,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20143,7 +20165,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20160,7 +20182,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20177,7 +20199,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20194,7 +20216,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20211,7 +20233,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20228,7 +20250,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20245,7 +20267,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20262,7 +20284,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20279,7 +20301,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20296,7 +20318,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20313,7 +20335,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20330,7 +20352,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20347,7 +20369,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20364,7 +20386,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20381,7 +20403,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20398,7 +20420,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20415,7 +20437,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20432,7 +20454,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20449,7 +20471,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20466,7 +20488,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20483,7 +20505,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20500,7 +20522,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20517,7 +20539,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20534,7 +20556,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20551,7 +20573,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20568,7 +20590,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20585,7 +20607,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20602,7 +20624,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20619,7 +20641,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20636,7 +20658,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20653,7 +20675,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20670,7 +20692,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20687,7 +20709,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20704,7 +20726,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20721,7 +20743,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20738,7 +20760,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20755,7 +20777,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20772,7 +20794,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20789,7 +20811,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20806,7 +20828,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20823,7 +20845,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20840,7 +20862,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20857,7 +20879,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20874,7 +20896,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20891,7 +20913,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20908,7 +20930,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20925,7 +20947,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20942,7 +20964,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20959,7 +20981,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20976,7 +20998,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20993,7 +21015,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21010,7 +21032,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21027,7 +21049,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21044,7 +21066,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21061,7 +21083,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21078,7 +21100,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21095,7 +21117,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21112,7 +21134,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21129,7 +21151,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21146,7 +21168,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21163,7 +21185,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21180,7 +21202,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21197,7 +21219,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21214,7 +21236,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21231,7 +21253,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21248,7 +21270,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21265,7 +21287,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21282,7 +21304,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21299,7 +21321,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21316,7 +21338,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21333,7 +21355,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21350,7 +21372,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21367,7 +21389,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21384,7 +21406,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21401,7 +21423,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21418,7 +21440,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21435,7 +21457,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21452,7 +21474,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21469,7 +21491,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21486,7 +21508,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21503,7 +21525,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21520,7 +21542,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21537,7 +21559,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21554,7 +21576,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21571,7 +21593,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21588,7 +21610,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21605,7 +21627,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21622,7 +21644,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21639,7 +21661,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21656,7 +21678,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21673,7 +21695,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21690,7 +21712,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21707,7 +21729,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21724,7 +21746,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21741,7 +21763,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21758,7 +21780,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21775,7 +21797,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21792,7 +21814,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21809,7 +21831,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21826,7 +21848,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21843,7 +21865,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21860,7 +21882,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21877,7 +21899,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21894,7 +21916,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21911,7 +21933,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21928,7 +21950,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21945,7 +21967,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21962,7 +21984,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21979,7 +22001,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>2601</v>
       </c>
@@ -21996,7 +22018,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22013,7 +22035,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22030,7 +22052,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22047,7 +22069,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22064,7 +22086,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22081,7 +22103,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22098,7 +22120,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22115,7 +22137,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22132,7 +22154,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22149,7 +22171,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22166,7 +22188,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22183,7 +22205,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22200,7 +22222,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22217,7 +22239,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22234,7 +22256,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22251,7 +22273,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22268,7 +22290,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22285,7 +22307,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22302,7 +22324,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22319,7 +22341,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22336,7 +22358,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22353,7 +22375,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22370,7 +22392,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22387,7 +22409,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22404,7 +22426,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22421,7 +22443,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22438,7 +22460,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22455,7 +22477,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22472,7 +22494,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22489,7 +22511,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22506,7 +22528,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22523,7 +22545,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22540,7 +22562,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22557,7 +22579,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>2601</v>
       </c>
@@ -22574,7 +22596,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>2601</v>
       </c>
@@ -64530,7 +64552,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="3105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3105" s="2" t="s">
         <v>5</v>
       </c>
@@ -64547,7 +64569,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="3106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3106" s="2" t="s">
         <v>5</v>
       </c>
@@ -64564,7 +64586,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="3107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3107" s="2" t="s">
         <v>5</v>
       </c>
@@ -64581,7 +64603,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="3108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3108" s="2" t="s">
         <v>5</v>
       </c>
@@ -64598,7 +64620,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="3109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3109" s="2" t="s">
         <v>5</v>
       </c>
@@ -64614,8 +64636,12 @@
       <c r="E3109" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3109" t="str">
+        <f>D3109</f>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3110" s="2" t="s">
         <v>5</v>
       </c>
@@ -64631,8 +64657,12 @@
       <c r="E3110" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3110" t="str">
+        <f t="shared" ref="F3110:F3167" si="0">D3110</f>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3111" s="2" t="s">
         <v>5</v>
       </c>
@@ -64648,8 +64678,12 @@
       <c r="E3111" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3111" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3112" s="2" t="s">
         <v>5</v>
       </c>
@@ -64665,8 +64699,12 @@
       <c r="E3112" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3112" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3113" s="2" t="s">
         <v>5</v>
       </c>
@@ -64682,8 +64720,12 @@
       <c r="E3113" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3113" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3114" s="2" t="s">
         <v>5</v>
       </c>
@@ -64699,8 +64741,12 @@
       <c r="E3114" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3114" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3115" s="2" t="s">
         <v>5</v>
       </c>
@@ -64716,8 +64762,12 @@
       <c r="E3115" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3115" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3116" s="2" t="s">
         <v>5</v>
       </c>
@@ -64733,8 +64783,12 @@
       <c r="E3116" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3116" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3117" s="2" t="s">
         <v>5</v>
       </c>
@@ -64750,8 +64804,12 @@
       <c r="E3117" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3117" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3118" s="2" t="s">
         <v>5</v>
       </c>
@@ -64767,8 +64825,12 @@
       <c r="E3118" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3118" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3119" s="2" t="s">
         <v>5</v>
       </c>
@@ -64784,8 +64846,12 @@
       <c r="E3119" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3119" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3120" s="2" t="s">
         <v>5</v>
       </c>
@@ -64801,8 +64867,12 @@
       <c r="E3120" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3120" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3121" s="2" t="s">
         <v>5</v>
       </c>
@@ -64818,8 +64888,12 @@
       <c r="E3121" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3121" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3122" s="2" t="s">
         <v>5</v>
       </c>
@@ -64835,8 +64909,12 @@
       <c r="E3122" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3122" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3123" s="2" t="s">
         <v>5</v>
       </c>
@@ -64852,8 +64930,12 @@
       <c r="E3123" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3123" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3124" s="2" t="s">
         <v>5</v>
       </c>
@@ -64869,8 +64951,12 @@
       <c r="E3124" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3124" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3125" s="2" t="s">
         <v>5</v>
       </c>
@@ -64886,8 +64972,12 @@
       <c r="E3125" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3125" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3126" s="2" t="s">
         <v>5</v>
       </c>
@@ -64903,8 +64993,12 @@
       <c r="E3126" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3126" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3127" s="2" t="s">
         <v>5</v>
       </c>
@@ -64920,8 +65014,12 @@
       <c r="E3127" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3127" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3128" s="2" t="s">
         <v>5</v>
       </c>
@@ -64937,8 +65035,12 @@
       <c r="E3128" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3128" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3129" s="2" t="s">
         <v>5</v>
       </c>
@@ -64954,8 +65056,12 @@
       <c r="E3129" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3129" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3130" s="2" t="s">
         <v>5</v>
       </c>
@@ -64971,8 +65077,12 @@
       <c r="E3130" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3130" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3131" s="2" t="s">
         <v>5</v>
       </c>
@@ -64988,8 +65098,12 @@
       <c r="E3131" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="3132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3131" t="str">
+        <f t="shared" si="0"/>
+        <v>NEF_DIAB</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3132" s="2" t="s">
         <v>5</v>
       </c>
@@ -65005,8 +65119,12 @@
       <c r="E3132" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3132" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3133" s="2" t="s">
         <v>5</v>
       </c>
@@ -65022,8 +65140,12 @@
       <c r="E3133" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3133" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3134" s="2" t="s">
         <v>5</v>
       </c>
@@ -65039,8 +65161,12 @@
       <c r="E3134" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3134" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3135" s="2" t="s">
         <v>5</v>
       </c>
@@ -65056,8 +65182,12 @@
       <c r="E3135" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3135" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3136" s="2" t="s">
         <v>5</v>
       </c>
@@ -65073,8 +65203,12 @@
       <c r="E3136" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3136" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3137" s="2" t="s">
         <v>5</v>
       </c>
@@ -65090,8 +65224,12 @@
       <c r="E3137" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3137" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3138" s="2" t="s">
         <v>5</v>
       </c>
@@ -65107,8 +65245,12 @@
       <c r="E3138" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3138" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3139" s="2" t="s">
         <v>5</v>
       </c>
@@ -65124,8 +65266,12 @@
       <c r="E3139" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3139" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3140" s="2" t="s">
         <v>5</v>
       </c>
@@ -65141,8 +65287,12 @@
       <c r="E3140" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3140" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3141" s="2" t="s">
         <v>5</v>
       </c>
@@ -65158,8 +65308,12 @@
       <c r="E3141" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3141" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3142" s="2" t="s">
         <v>5</v>
       </c>
@@ -65175,8 +65329,12 @@
       <c r="E3142" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3142" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3143" s="2" t="s">
         <v>5</v>
       </c>
@@ -65192,8 +65350,12 @@
       <c r="E3143" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3143" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3144" s="2" t="s">
         <v>5</v>
       </c>
@@ -65209,8 +65371,12 @@
       <c r="E3144" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3144" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3145" s="2" t="s">
         <v>5</v>
       </c>
@@ -65226,8 +65392,12 @@
       <c r="E3145" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3145" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3146" s="2" t="s">
         <v>5</v>
       </c>
@@ -65243,8 +65413,12 @@
       <c r="E3146" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3146" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3147" s="2" t="s">
         <v>5</v>
       </c>
@@ -65260,8 +65434,12 @@
       <c r="E3147" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3147" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3148" s="2" t="s">
         <v>5</v>
       </c>
@@ -65277,8 +65455,12 @@
       <c r="E3148" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3148" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3149" s="2" t="s">
         <v>5</v>
       </c>
@@ -65294,8 +65476,12 @@
       <c r="E3149" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3149" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3150" s="2" t="s">
         <v>5</v>
       </c>
@@ -65311,8 +65497,12 @@
       <c r="E3150" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3150" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3151" s="2" t="s">
         <v>5</v>
       </c>
@@ -65328,8 +65518,12 @@
       <c r="E3151" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3151" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3152" s="2" t="s">
         <v>5</v>
       </c>
@@ -65345,8 +65539,12 @@
       <c r="E3152" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3152" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3153" s="2" t="s">
         <v>5</v>
       </c>
@@ -65362,8 +65560,12 @@
       <c r="E3153" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3153" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3154" s="2" t="s">
         <v>5</v>
       </c>
@@ -65379,8 +65581,12 @@
       <c r="E3154" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3154" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3155" s="2" t="s">
         <v>5</v>
       </c>
@@ -65396,8 +65602,12 @@
       <c r="E3155" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3155" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3156" s="2" t="s">
         <v>5</v>
       </c>
@@ -65413,8 +65623,12 @@
       <c r="E3156" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3156" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3157" s="2" t="s">
         <v>5</v>
       </c>
@@ -65430,8 +65644,12 @@
       <c r="E3157" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3157" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3158" s="2" t="s">
         <v>5</v>
       </c>
@@ -65447,8 +65665,12 @@
       <c r="E3158" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3158" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3159" s="2" t="s">
         <v>5</v>
       </c>
@@ -65464,8 +65686,12 @@
       <c r="E3159" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3159" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3160" s="2" t="s">
         <v>5</v>
       </c>
@@ -65481,8 +65707,12 @@
       <c r="E3160" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3160" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3161" s="2" t="s">
         <v>5</v>
       </c>
@@ -65498,8 +65728,12 @@
       <c r="E3161" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3161" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3162" s="2" t="s">
         <v>5</v>
       </c>
@@ -65515,8 +65749,12 @@
       <c r="E3162" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3162" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3163" s="2" t="s">
         <v>5</v>
       </c>
@@ -65532,8 +65770,12 @@
       <c r="E3163" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3163" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3164" s="2" t="s">
         <v>5</v>
       </c>
@@ -65549,8 +65791,12 @@
       <c r="E3164" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3164" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3165" s="2" t="s">
         <v>5</v>
       </c>
@@ -65566,8 +65812,12 @@
       <c r="E3165" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3165" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3166" s="2" t="s">
         <v>5</v>
       </c>
@@ -65583,8 +65833,12 @@
       <c r="E3166" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3166" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3167" s="2" t="s">
         <v>5</v>
       </c>
@@ -65600,8 +65854,12 @@
       <c r="E3167" s="2" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="3168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3167" t="str">
+        <f t="shared" si="0"/>
+        <v>NEURO_DIAB</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3168" s="2" t="s">
         <v>2451</v>
       </c>
@@ -66162,7 +66420,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="3201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3201" s="2" t="s">
         <v>5</v>
       </c>
@@ -66178,8 +66436,12 @@
       <c r="E3201" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3201" t="str">
+        <f>D3201</f>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3202" s="2" t="s">
         <v>5</v>
       </c>
@@ -66195,8 +66457,12 @@
       <c r="E3202" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3202" t="str">
+        <f t="shared" ref="F3202:F3265" si="1">D3202</f>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3203" s="2" t="s">
         <v>5</v>
       </c>
@@ -66212,8 +66478,12 @@
       <c r="E3203" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3203" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3204" s="2" t="s">
         <v>5</v>
       </c>
@@ -66229,8 +66499,12 @@
       <c r="E3204" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3204" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3205" s="2" t="s">
         <v>5</v>
       </c>
@@ -66246,8 +66520,12 @@
       <c r="E3205" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3205" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3206" s="2" t="s">
         <v>5</v>
       </c>
@@ -66263,8 +66541,12 @@
       <c r="E3206" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3206" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3207" s="2" t="s">
         <v>5</v>
       </c>
@@ -66280,8 +66562,12 @@
       <c r="E3207" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3207" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3208" s="2" t="s">
         <v>5</v>
       </c>
@@ -66297,8 +66583,12 @@
       <c r="E3208" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3208" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3209" s="2" t="s">
         <v>5</v>
       </c>
@@ -66314,8 +66604,12 @@
       <c r="E3209" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3209" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3210" s="2" t="s">
         <v>5</v>
       </c>
@@ -66331,8 +66625,12 @@
       <c r="E3210" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3210" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3211" s="2" t="s">
         <v>5</v>
       </c>
@@ -66348,8 +66646,12 @@
       <c r="E3211" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3211" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3212" s="2" t="s">
         <v>5</v>
       </c>
@@ -66365,8 +66667,12 @@
       <c r="E3212" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3212" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3213" s="2" t="s">
         <v>5</v>
       </c>
@@ -66382,8 +66688,12 @@
       <c r="E3213" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3213" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3214" s="2" t="s">
         <v>5</v>
       </c>
@@ -66399,8 +66709,12 @@
       <c r="E3214" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3214" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3215" s="2" t="s">
         <v>5</v>
       </c>
@@ -66416,8 +66730,12 @@
       <c r="E3215" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3215" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3216" s="2" t="s">
         <v>5</v>
       </c>
@@ -66433,8 +66751,12 @@
       <c r="E3216" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3216" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3217" s="2" t="s">
         <v>5</v>
       </c>
@@ -66450,8 +66772,12 @@
       <c r="E3217" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3217" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3218" s="2" t="s">
         <v>5</v>
       </c>
@@ -66467,8 +66793,12 @@
       <c r="E3218" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3218" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3219" s="2" t="s">
         <v>5</v>
       </c>
@@ -66484,8 +66814,12 @@
       <c r="E3219" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3219" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3220" s="2" t="s">
         <v>5</v>
       </c>
@@ -66501,8 +66835,12 @@
       <c r="E3220" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3220" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3221" s="2" t="s">
         <v>5</v>
       </c>
@@ -66518,8 +66856,12 @@
       <c r="E3221" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3221" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3222" s="2" t="s">
         <v>5</v>
       </c>
@@ -66535,8 +66877,12 @@
       <c r="E3222" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3222" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3223" s="2" t="s">
         <v>5</v>
       </c>
@@ -66552,8 +66898,12 @@
       <c r="E3223" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3223" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3224" s="2" t="s">
         <v>5</v>
       </c>
@@ -66569,8 +66919,12 @@
       <c r="E3224" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3224" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3225" s="2" t="s">
         <v>5</v>
       </c>
@@ -66586,8 +66940,12 @@
       <c r="E3225" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3225" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3226" s="2" t="s">
         <v>5</v>
       </c>
@@ -66603,8 +66961,12 @@
       <c r="E3226" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3226" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3227" s="2" t="s">
         <v>5</v>
       </c>
@@ -66620,8 +66982,12 @@
       <c r="E3227" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3227" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3228" s="2" t="s">
         <v>5</v>
       </c>
@@ -66637,8 +67003,12 @@
       <c r="E3228" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3228" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3229" s="2" t="s">
         <v>5</v>
       </c>
@@ -66654,8 +67024,12 @@
       <c r="E3229" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3229" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3230" s="2" t="s">
         <v>5</v>
       </c>
@@ -66671,8 +67045,12 @@
       <c r="E3230" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3230" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3231" s="2" t="s">
         <v>5</v>
       </c>
@@ -66688,8 +67066,12 @@
       <c r="E3231" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3231" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3232" s="2" t="s">
         <v>5</v>
       </c>
@@ -66705,8 +67087,12 @@
       <c r="E3232" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3232" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3233" s="2" t="s">
         <v>5</v>
       </c>
@@ -66722,8 +67108,12 @@
       <c r="E3233" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3233" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3234" s="2" t="s">
         <v>5</v>
       </c>
@@ -66739,8 +67129,12 @@
       <c r="E3234" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3234" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3235" s="2" t="s">
         <v>5</v>
       </c>
@@ -66756,8 +67150,12 @@
       <c r="E3235" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3235" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3236" s="2" t="s">
         <v>5</v>
       </c>
@@ -66773,8 +67171,12 @@
       <c r="E3236" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3236" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3237" s="2" t="s">
         <v>5</v>
       </c>
@@ -66790,8 +67192,12 @@
       <c r="E3237" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3237" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3238" s="2" t="s">
         <v>5</v>
       </c>
@@ -66807,8 +67213,12 @@
       <c r="E3238" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3238" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3239" s="2" t="s">
         <v>5</v>
       </c>
@@ -66824,8 +67234,12 @@
       <c r="E3239" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3239" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3240" s="2" t="s">
         <v>5</v>
       </c>
@@ -66841,8 +67255,12 @@
       <c r="E3240" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3240" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3241" s="2" t="s">
         <v>5</v>
       </c>
@@ -66858,8 +67276,12 @@
       <c r="E3241" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3241" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3242" s="2" t="s">
         <v>5</v>
       </c>
@@ -66875,8 +67297,12 @@
       <c r="E3242" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3242" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3243" s="2" t="s">
         <v>5</v>
       </c>
@@ -66892,8 +67318,12 @@
       <c r="E3243" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3243" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3244" s="2" t="s">
         <v>5</v>
       </c>
@@ -66909,8 +67339,12 @@
       <c r="E3244" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3244" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3245" s="2" t="s">
         <v>5</v>
       </c>
@@ -66926,8 +67360,12 @@
       <c r="E3245" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3245" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3246" s="2" t="s">
         <v>5</v>
       </c>
@@ -66943,8 +67381,12 @@
       <c r="E3246" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3246" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3247" s="2" t="s">
         <v>5</v>
       </c>
@@ -66960,8 +67402,12 @@
       <c r="E3247" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3247" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3248" s="2" t="s">
         <v>5</v>
       </c>
@@ -66977,8 +67423,12 @@
       <c r="E3248" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3248" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3249" s="2" t="s">
         <v>5</v>
       </c>
@@ -66994,8 +67444,12 @@
       <c r="E3249" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3249" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3250" s="2" t="s">
         <v>5</v>
       </c>
@@ -67011,8 +67465,12 @@
       <c r="E3250" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3250" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3251" s="2" t="s">
         <v>5</v>
       </c>
@@ -67028,8 +67486,12 @@
       <c r="E3251" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3251" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3252" s="2" t="s">
         <v>5</v>
       </c>
@@ -67045,8 +67507,12 @@
       <c r="E3252" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3252" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3253" s="2" t="s">
         <v>5</v>
       </c>
@@ -67062,8 +67528,12 @@
       <c r="E3253" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3253" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3254" s="2" t="s">
         <v>5</v>
       </c>
@@ -67079,8 +67549,12 @@
       <c r="E3254" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3254" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3255" s="2" t="s">
         <v>5</v>
       </c>
@@ -67096,8 +67570,12 @@
       <c r="E3255" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3255" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3256" s="2" t="s">
         <v>5</v>
       </c>
@@ -67113,8 +67591,12 @@
       <c r="E3256" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3256" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3257" s="2" t="s">
         <v>5</v>
       </c>
@@ -67130,8 +67612,12 @@
       <c r="E3257" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3257" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3258" s="2" t="s">
         <v>5</v>
       </c>
@@ -67147,8 +67633,12 @@
       <c r="E3258" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3258" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3259" s="2" t="s">
         <v>5</v>
       </c>
@@ -67164,8 +67654,12 @@
       <c r="E3259" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3259" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3260" s="2" t="s">
         <v>5</v>
       </c>
@@ -67181,8 +67675,12 @@
       <c r="E3260" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3260" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3261" s="2" t="s">
         <v>5</v>
       </c>
@@ -67198,8 +67696,12 @@
       <c r="E3261" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3261" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3262" s="2" t="s">
         <v>5</v>
       </c>
@@ -67215,8 +67717,12 @@
       <c r="E3262" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3262" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3263" s="2" t="s">
         <v>5</v>
       </c>
@@ -67232,8 +67738,12 @@
       <c r="E3263" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3263" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3264" s="2" t="s">
         <v>5</v>
       </c>
@@ -67249,8 +67759,12 @@
       <c r="E3264" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3264" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3265" s="2" t="s">
         <v>5</v>
       </c>
@@ -67266,8 +67780,12 @@
       <c r="E3265" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3265" t="str">
+        <f t="shared" si="1"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3266" s="2" t="s">
         <v>5</v>
       </c>
@@ -67283,8 +67801,12 @@
       <c r="E3266" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3266" t="str">
+        <f t="shared" ref="F3266:F3275" si="2">D3266</f>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3267" s="2" t="s">
         <v>5</v>
       </c>
@@ -67300,8 +67822,12 @@
       <c r="E3267" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3267" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3268" s="2" t="s">
         <v>5</v>
       </c>
@@ -67317,8 +67843,12 @@
       <c r="E3268" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3268" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3269" s="2" t="s">
         <v>5</v>
       </c>
@@ -67334,8 +67864,12 @@
       <c r="E3269" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3269" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3270" s="2" t="s">
         <v>5</v>
       </c>
@@ -67351,8 +67885,12 @@
       <c r="E3270" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3270" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3271" s="2" t="s">
         <v>5</v>
       </c>
@@ -67368,8 +67906,12 @@
       <c r="E3271" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3271" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3272" s="2" t="s">
         <v>5</v>
       </c>
@@ -67385,8 +67927,12 @@
       <c r="E3272" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3272" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3273" s="2" t="s">
         <v>5</v>
       </c>
@@ -67402,8 +67948,12 @@
       <c r="E3273" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3273" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3274" s="2" t="s">
         <v>5</v>
       </c>
@@ -67419,8 +67969,12 @@
       <c r="E3274" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3274" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3275" s="2" t="s">
         <v>5</v>
       </c>
@@ -67436,8 +67990,12 @@
       <c r="E3275" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="3276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3275" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP_DM</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3276" s="2" t="s">
         <v>2471</v>
       </c>
@@ -67454,7 +68012,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="3277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3277" s="2" t="s">
         <v>2471</v>
       </c>
@@ -67465,7 +68023,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="3278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3278" s="2" t="s">
         <v>2471</v>
       </c>
@@ -67476,7 +68034,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="3279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3279" s="2" t="s">
         <v>2471</v>
       </c>
@@ -67487,7 +68045,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="3280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3280" s="2" t="s">
         <v>2471</v>
       </c>
@@ -67499,11 +68057,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3280">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ANTIDIAB"/>
-      </filters>
+  <autoFilter ref="A1:F3280">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CATALEG.xlsx
+++ b/CATALEG.xlsx
@@ -11757,7 +11757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11769,10 +11769,10 @@
   <dimension ref="A1:F3280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1905" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3112" sqref="F3112"/>
+      <selection pane="bottomRight" activeCell="D2034" sqref="D2034:D2049"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38508,7 +38508,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="1573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1573" s="2" t="s">
         <v>5</v>
       </c>
@@ -38525,7 +38525,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1574" s="2" t="s">
         <v>5</v>
       </c>
@@ -38542,7 +38542,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1575" s="2" t="s">
         <v>5</v>
       </c>
@@ -38559,7 +38559,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1576" s="2" t="s">
         <v>5</v>
       </c>
@@ -38576,7 +38576,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1577" s="2" t="s">
         <v>5</v>
       </c>
@@ -38593,7 +38593,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1578" s="2" t="s">
         <v>5</v>
       </c>
@@ -38610,7 +38610,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1579" s="2" t="s">
         <v>5</v>
       </c>
@@ -38627,7 +38627,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1580" s="2" t="s">
         <v>5</v>
       </c>
@@ -38644,7 +38644,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1581" s="2" t="s">
         <v>5</v>
       </c>
@@ -38661,7 +38661,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1582" s="2" t="s">
         <v>5</v>
       </c>
@@ -38678,7 +38678,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1583" s="2" t="s">
         <v>5</v>
       </c>
@@ -38695,7 +38695,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1584" s="2" t="s">
         <v>5</v>
       </c>
@@ -38712,7 +38712,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1585" s="2" t="s">
         <v>5</v>
       </c>
@@ -38729,7 +38729,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1586" s="2" t="s">
         <v>5</v>
       </c>
@@ -38746,7 +38746,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1587" s="2" t="s">
         <v>5</v>
       </c>
@@ -38763,7 +38763,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1588" s="2" t="s">
         <v>5</v>
       </c>
@@ -38780,7 +38780,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1589" s="2" t="s">
         <v>5</v>
       </c>
@@ -38797,7 +38797,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1590" s="2" t="s">
         <v>5</v>
       </c>
@@ -38814,7 +38814,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1591" s="2" t="s">
         <v>5</v>
       </c>
@@ -38831,7 +38831,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1592" s="2" t="s">
         <v>5</v>
       </c>
@@ -38848,7 +38848,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1593" s="2" t="s">
         <v>5</v>
       </c>
@@ -38865,7 +38865,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1594" s="2" t="s">
         <v>5</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1595" s="2" t="s">
         <v>5</v>
       </c>
@@ -38899,7 +38899,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1596" s="2" t="s">
         <v>5</v>
       </c>
@@ -38916,7 +38916,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1597" s="2" t="s">
         <v>5</v>
       </c>
@@ -38933,7 +38933,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1598" s="2" t="s">
         <v>5</v>
       </c>
@@ -38950,7 +38950,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1599" s="2" t="s">
         <v>5</v>
       </c>
@@ -38967,7 +38967,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1600" s="2" t="s">
         <v>5</v>
       </c>
@@ -38984,7 +38984,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1601" s="2" t="s">
         <v>5</v>
       </c>
@@ -39001,7 +39001,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1602" s="2" t="s">
         <v>5</v>
       </c>
@@ -39018,7 +39018,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1603" s="2" t="s">
         <v>5</v>
       </c>
@@ -39035,7 +39035,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1604" s="2" t="s">
         <v>5</v>
       </c>
@@ -39052,7 +39052,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1605" s="2" t="s">
         <v>5</v>
       </c>
@@ -39069,7 +39069,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1606" s="2" t="s">
         <v>5</v>
       </c>
@@ -39086,7 +39086,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1607" s="2" t="s">
         <v>5</v>
       </c>
@@ -39103,7 +39103,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1608" s="2" t="s">
         <v>5</v>
       </c>
@@ -39120,7 +39120,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1609" s="2" t="s">
         <v>5</v>
       </c>
@@ -39137,7 +39137,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1610" s="2" t="s">
         <v>5</v>
       </c>
@@ -39154,7 +39154,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1611" s="2" t="s">
         <v>5</v>
       </c>
@@ -39171,7 +39171,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1612" s="2" t="s">
         <v>5</v>
       </c>
@@ -39188,7 +39188,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1613" s="2" t="s">
         <v>5</v>
       </c>
@@ -39205,7 +39205,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1614" s="2" t="s">
         <v>5</v>
       </c>
@@ -39222,7 +39222,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1615" s="2" t="s">
         <v>5</v>
       </c>
@@ -39239,7 +39239,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1616" s="2" t="s">
         <v>5</v>
       </c>
@@ -39256,7 +39256,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1617" s="2" t="s">
         <v>5</v>
       </c>
@@ -39273,7 +39273,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1618" s="2" t="s">
         <v>5</v>
       </c>
@@ -39290,7 +39290,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1619" s="2" t="s">
         <v>5</v>
       </c>
@@ -39307,7 +39307,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1620" s="2" t="s">
         <v>5</v>
       </c>
@@ -39324,7 +39324,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1621" s="2" t="s">
         <v>5</v>
       </c>
@@ -39341,7 +39341,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1622" s="2" t="s">
         <v>5</v>
       </c>
@@ -39358,7 +39358,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1623" s="2" t="s">
         <v>5</v>
       </c>
@@ -39375,7 +39375,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1624" s="2" t="s">
         <v>5</v>
       </c>
@@ -39392,7 +39392,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1625" s="2" t="s">
         <v>5</v>
       </c>
@@ -39409,7 +39409,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1626" s="2" t="s">
         <v>5</v>
       </c>
@@ -39426,7 +39426,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1627" s="2" t="s">
         <v>5</v>
       </c>
@@ -39443,7 +39443,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1628" s="2" t="s">
         <v>5</v>
       </c>
@@ -39460,7 +39460,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1629" s="2" t="s">
         <v>5</v>
       </c>
@@ -39477,7 +39477,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1630" s="2" t="s">
         <v>5</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1631" s="2" t="s">
         <v>5</v>
       </c>
@@ -39511,7 +39511,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1632" s="2" t="s">
         <v>5</v>
       </c>
@@ -39528,7 +39528,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1633" s="2" t="s">
         <v>5</v>
       </c>
@@ -39545,7 +39545,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1634" s="2" t="s">
         <v>5</v>
       </c>
@@ -39562,7 +39562,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1635" s="2" t="s">
         <v>5</v>
       </c>
@@ -39579,7 +39579,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1636" s="2" t="s">
         <v>5</v>
       </c>
@@ -39596,7 +39596,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1637" s="2" t="s">
         <v>5</v>
       </c>
@@ -39613,7 +39613,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1638" s="2" t="s">
         <v>5</v>
       </c>
@@ -39630,7 +39630,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1639" s="2" t="s">
         <v>5</v>
       </c>
@@ -39647,7 +39647,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1640" s="2" t="s">
         <v>5</v>
       </c>
@@ -39664,7 +39664,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1641" s="2" t="s">
         <v>5</v>
       </c>
@@ -39681,7 +39681,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1642" s="2" t="s">
         <v>5</v>
       </c>
@@ -39698,7 +39698,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1643" s="2" t="s">
         <v>5</v>
       </c>
@@ -39715,7 +39715,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1644" s="2" t="s">
         <v>5</v>
       </c>
@@ -39732,7 +39732,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1645" s="2" t="s">
         <v>5</v>
       </c>
@@ -39749,7 +39749,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1646" s="2" t="s">
         <v>5</v>
       </c>
@@ -39766,7 +39766,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1647" s="2" t="s">
         <v>5</v>
       </c>
@@ -39783,7 +39783,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1648" s="2" t="s">
         <v>5</v>
       </c>
@@ -39800,7 +39800,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1649" s="2" t="s">
         <v>5</v>
       </c>
@@ -39817,7 +39817,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1650" s="2" t="s">
         <v>5</v>
       </c>
@@ -39834,7 +39834,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1651" s="2" t="s">
         <v>5</v>
       </c>
@@ -39851,7 +39851,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1652" s="2" t="s">
         <v>5</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1653" s="2" t="s">
         <v>5</v>
       </c>
@@ -39885,7 +39885,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1654" s="2" t="s">
         <v>5</v>
       </c>
@@ -39902,7 +39902,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1655" s="2" t="s">
         <v>5</v>
       </c>
@@ -39919,7 +39919,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1656" s="2" t="s">
         <v>5</v>
       </c>
@@ -39936,7 +39936,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1657" s="2" t="s">
         <v>5</v>
       </c>
@@ -39953,7 +39953,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1658" s="2" t="s">
         <v>5</v>
       </c>
@@ -39970,7 +39970,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1659" s="2" t="s">
         <v>5</v>
       </c>
@@ -39987,7 +39987,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1660" s="2" t="s">
         <v>5</v>
       </c>
@@ -40004,7 +40004,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1661" s="2" t="s">
         <v>5</v>
       </c>
@@ -40021,7 +40021,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1662" s="2" t="s">
         <v>5</v>
       </c>
@@ -40038,7 +40038,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1663" s="2" t="s">
         <v>5</v>
       </c>
@@ -40055,7 +40055,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1664" s="2" t="s">
         <v>5</v>
       </c>
@@ -40072,7 +40072,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1665" s="2" t="s">
         <v>5</v>
       </c>
@@ -40089,7 +40089,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1666" s="2" t="s">
         <v>5</v>
       </c>
@@ -40106,7 +40106,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1667" s="2" t="s">
         <v>5</v>
       </c>
@@ -40123,7 +40123,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1668" s="2" t="s">
         <v>5</v>
       </c>
@@ -40140,7 +40140,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1669" s="2" t="s">
         <v>5</v>
       </c>
@@ -40157,7 +40157,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1670" s="2" t="s">
         <v>5</v>
       </c>
@@ -40174,7 +40174,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1671" s="2" t="s">
         <v>5</v>
       </c>
@@ -40191,7 +40191,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1672" s="2" t="s">
         <v>5</v>
       </c>
@@ -40208,7 +40208,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1673" s="2" t="s">
         <v>5</v>
       </c>
@@ -40225,7 +40225,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1674" s="2" t="s">
         <v>5</v>
       </c>
@@ -40242,7 +40242,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1675" s="2" t="s">
         <v>5</v>
       </c>
@@ -40259,7 +40259,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1676" s="2" t="s">
         <v>5</v>
       </c>
@@ -40276,7 +40276,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1677" s="2" t="s">
         <v>5</v>
       </c>
@@ -40293,7 +40293,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1678" s="2" t="s">
         <v>5</v>
       </c>
@@ -40310,7 +40310,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1679" s="2" t="s">
         <v>5</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1680" s="2" t="s">
         <v>5</v>
       </c>
@@ -40344,7 +40344,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1681" s="2" t="s">
         <v>5</v>
       </c>
@@ -40361,7 +40361,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1682" s="2" t="s">
         <v>5</v>
       </c>
@@ -40378,7 +40378,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1683" s="2" t="s">
         <v>5</v>
       </c>
@@ -40395,7 +40395,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1684" s="2" t="s">
         <v>5</v>
       </c>
@@ -40412,7 +40412,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1685" s="2" t="s">
         <v>5</v>
       </c>
@@ -40429,7 +40429,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1686" s="2" t="s">
         <v>5</v>
       </c>
@@ -40446,7 +40446,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1687" s="2" t="s">
         <v>5</v>
       </c>
@@ -40463,7 +40463,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1688" s="2" t="s">
         <v>5</v>
       </c>
@@ -40480,7 +40480,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1689" s="2" t="s">
         <v>5</v>
       </c>
@@ -40497,7 +40497,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1690" s="2" t="s">
         <v>5</v>
       </c>
@@ -40514,7 +40514,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1691" s="2" t="s">
         <v>5</v>
       </c>
@@ -40531,7 +40531,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1692" s="2" t="s">
         <v>5</v>
       </c>
@@ -40548,7 +40548,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1693" s="2" t="s">
         <v>5</v>
       </c>
@@ -40565,7 +40565,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1694" s="2" t="s">
         <v>5</v>
       </c>
@@ -40582,7 +40582,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1695" s="2" t="s">
         <v>5</v>
       </c>
@@ -40599,7 +40599,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1696" s="2" t="s">
         <v>5</v>
       </c>
@@ -40616,7 +40616,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1697" s="2" t="s">
         <v>5</v>
       </c>
@@ -40633,7 +40633,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1698" s="2" t="s">
         <v>5</v>
       </c>
@@ -40650,7 +40650,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1699" s="2" t="s">
         <v>5</v>
       </c>
@@ -40667,7 +40667,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1700" s="2" t="s">
         <v>5</v>
       </c>
@@ -40684,7 +40684,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1701" s="2" t="s">
         <v>5</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1702" s="2" t="s">
         <v>5</v>
       </c>
@@ -40718,7 +40718,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1703" s="2" t="s">
         <v>5</v>
       </c>
@@ -40735,7 +40735,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1704" s="2" t="s">
         <v>5</v>
       </c>
@@ -40752,7 +40752,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1705" s="2" t="s">
         <v>5</v>
       </c>
@@ -40769,7 +40769,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1706" s="2" t="s">
         <v>5</v>
       </c>
@@ -40786,7 +40786,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1707" s="2" t="s">
         <v>5</v>
       </c>
@@ -40803,7 +40803,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1708" s="2" t="s">
         <v>5</v>
       </c>
@@ -40820,7 +40820,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1709" s="2" t="s">
         <v>5</v>
       </c>
@@ -40837,7 +40837,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1710" s="2" t="s">
         <v>5</v>
       </c>
@@ -40854,7 +40854,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1711" s="2" t="s">
         <v>5</v>
       </c>
@@ -40871,7 +40871,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1712" s="2" t="s">
         <v>5</v>
       </c>
@@ -40888,7 +40888,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1713" s="2" t="s">
         <v>5</v>
       </c>
@@ -40905,7 +40905,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1714" s="2" t="s">
         <v>5</v>
       </c>
@@ -40922,7 +40922,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1715" s="2" t="s">
         <v>5</v>
       </c>
@@ -40939,7 +40939,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1716" s="2" t="s">
         <v>5</v>
       </c>
@@ -40956,7 +40956,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1717" s="2" t="s">
         <v>5</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1718" s="2" t="s">
         <v>5</v>
       </c>
@@ -40990,7 +40990,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1719" s="2" t="s">
         <v>5</v>
       </c>
@@ -41007,7 +41007,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1720" s="2" t="s">
         <v>5</v>
       </c>
@@ -41024,7 +41024,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1721" s="2" t="s">
         <v>5</v>
       </c>
@@ -41041,7 +41041,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1722" s="2" t="s">
         <v>5</v>
       </c>
@@ -41058,7 +41058,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1723" s="2" t="s">
         <v>5</v>
       </c>
@@ -41075,7 +41075,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1724" s="2" t="s">
         <v>5</v>
       </c>
@@ -41092,7 +41092,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1725" s="2" t="s">
         <v>5</v>
       </c>
@@ -41109,7 +41109,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1726" s="2" t="s">
         <v>5</v>
       </c>
@@ -41126,7 +41126,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1727" s="2" t="s">
         <v>5</v>
       </c>
@@ -41143,7 +41143,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1728" s="2" t="s">
         <v>5</v>
       </c>
@@ -41160,7 +41160,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1729" s="2" t="s">
         <v>5</v>
       </c>
@@ -41177,7 +41177,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1730" s="2" t="s">
         <v>5</v>
       </c>
@@ -41194,7 +41194,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1731" s="2" t="s">
         <v>5</v>
       </c>
@@ -41211,7 +41211,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1732" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1732" s="2" t="s">
         <v>5</v>
       </c>
@@ -41228,7 +41228,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1733" s="2" t="s">
         <v>5</v>
       </c>
@@ -41245,7 +41245,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1734" s="2" t="s">
         <v>5</v>
       </c>
@@ -41262,7 +41262,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1735" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1735" s="2" t="s">
         <v>5</v>
       </c>
@@ -41279,7 +41279,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1736" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1736" s="2" t="s">
         <v>5</v>
       </c>
@@ -41296,7 +41296,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1737" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1737" s="2" t="s">
         <v>5</v>
       </c>
@@ -41313,7 +41313,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1738" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" s="2" t="s">
         <v>5</v>
       </c>
@@ -41330,7 +41330,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1739" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1739" s="2" t="s">
         <v>5</v>
       </c>
@@ -41347,7 +41347,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1740" s="2" t="s">
         <v>5</v>
       </c>
@@ -41364,7 +41364,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1741" s="2" t="s">
         <v>5</v>
       </c>
@@ -41381,7 +41381,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1742" s="2" t="s">
         <v>5</v>
       </c>
@@ -41398,7 +41398,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1743" s="2" t="s">
         <v>5</v>
       </c>
@@ -41415,7 +41415,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1744" s="2" t="s">
         <v>5</v>
       </c>
@@ -41432,7 +41432,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1745" s="2" t="s">
         <v>5</v>
       </c>
@@ -41449,7 +41449,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1746" s="2" t="s">
         <v>5</v>
       </c>
@@ -41466,7 +41466,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1747" s="2" t="s">
         <v>5</v>
       </c>
@@ -41483,7 +41483,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1748" s="2" t="s">
         <v>5</v>
       </c>
@@ -41500,7 +41500,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1749" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1749" s="2" t="s">
         <v>5</v>
       </c>
@@ -41517,7 +41517,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1750" s="2" t="s">
         <v>5</v>
       </c>
@@ -41534,7 +41534,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1751" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1751" s="2" t="s">
         <v>5</v>
       </c>
@@ -41551,7 +41551,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1752" s="2" t="s">
         <v>5</v>
       </c>
@@ -41568,7 +41568,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1753" s="2" t="s">
         <v>5</v>
       </c>
@@ -41585,7 +41585,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1754" s="2" t="s">
         <v>5</v>
       </c>
@@ -41602,7 +41602,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1755" s="2" t="s">
         <v>5</v>
       </c>
@@ -41619,7 +41619,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1756" s="2" t="s">
         <v>5</v>
       </c>
@@ -41636,7 +41636,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1757" s="2" t="s">
         <v>5</v>
       </c>
@@ -41653,7 +41653,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1758" s="2" t="s">
         <v>5</v>
       </c>
@@ -41670,7 +41670,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1759" s="2" t="s">
         <v>5</v>
       </c>
@@ -41687,7 +41687,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1760" s="2" t="s">
         <v>5</v>
       </c>
@@ -41704,7 +41704,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1761" s="2" t="s">
         <v>5</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1762" s="2" t="s">
         <v>5</v>
       </c>
@@ -41738,7 +41738,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1763" s="2" t="s">
         <v>5</v>
       </c>
@@ -41755,7 +41755,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1764" s="2" t="s">
         <v>5</v>
       </c>
@@ -41772,7 +41772,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1765" s="2" t="s">
         <v>5</v>
       </c>
@@ -41789,7 +41789,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1766" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1766" s="2" t="s">
         <v>5</v>
       </c>
@@ -41806,7 +41806,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1767" s="2" t="s">
         <v>5</v>
       </c>
@@ -41823,7 +41823,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1768" s="2" t="s">
         <v>5</v>
       </c>
@@ -41840,7 +41840,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1769" s="2" t="s">
         <v>5</v>
       </c>
@@ -41857,7 +41857,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1770" s="2" t="s">
         <v>5</v>
       </c>
@@ -41874,7 +41874,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1771" s="2" t="s">
         <v>5</v>
       </c>
@@ -41891,7 +41891,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1772" s="2" t="s">
         <v>5</v>
       </c>
@@ -41908,7 +41908,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1773" s="2" t="s">
         <v>5</v>
       </c>
@@ -41925,7 +41925,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1774" s="2" t="s">
         <v>5</v>
       </c>
@@ -41942,7 +41942,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1775" s="2" t="s">
         <v>5</v>
       </c>
@@ -41959,7 +41959,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1776" s="2" t="s">
         <v>5</v>
       </c>
@@ -41976,7 +41976,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1777" s="2" t="s">
         <v>5</v>
       </c>
@@ -41993,7 +41993,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1778" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1778" s="2" t="s">
         <v>5</v>
       </c>
@@ -42010,7 +42010,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1779" s="2" t="s">
         <v>5</v>
       </c>
@@ -42027,7 +42027,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1780" s="2" t="s">
         <v>5</v>
       </c>
@@ -42044,7 +42044,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1781" s="2" t="s">
         <v>5</v>
       </c>
@@ -42061,7 +42061,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1782" s="2" t="s">
         <v>5</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1783" s="2" t="s">
         <v>5</v>
       </c>
@@ -42095,7 +42095,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1784" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1784" s="2" t="s">
         <v>5</v>
       </c>
@@ -42112,7 +42112,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1785" s="2" t="s">
         <v>5</v>
       </c>
@@ -42129,7 +42129,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1786" s="2" t="s">
         <v>5</v>
       </c>
@@ -42146,7 +42146,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1787" s="2" t="s">
         <v>5</v>
       </c>
@@ -42163,7 +42163,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1788" s="2" t="s">
         <v>5</v>
       </c>
@@ -42180,7 +42180,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1789" s="2" t="s">
         <v>5</v>
       </c>
@@ -42197,7 +42197,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1790" s="2" t="s">
         <v>5</v>
       </c>
@@ -42214,7 +42214,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1791" s="2" t="s">
         <v>5</v>
       </c>
@@ -42231,7 +42231,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1792" s="2" t="s">
         <v>5</v>
       </c>
@@ -42248,7 +42248,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1793" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1793" s="2" t="s">
         <v>5</v>
       </c>
@@ -42265,7 +42265,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1794" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1794" s="2" t="s">
         <v>5</v>
       </c>
@@ -42282,7 +42282,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1795" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1795" s="2" t="s">
         <v>5</v>
       </c>
@@ -42299,7 +42299,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1796" s="2" t="s">
         <v>5</v>
       </c>
@@ -42316,7 +42316,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1797" s="2" t="s">
         <v>5</v>
       </c>
@@ -42333,7 +42333,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1798" s="2" t="s">
         <v>5</v>
       </c>
@@ -42350,7 +42350,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1799" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1799" s="2" t="s">
         <v>5</v>
       </c>
@@ -42367,7 +42367,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1800" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1800" s="2" t="s">
         <v>5</v>
       </c>
@@ -42384,7 +42384,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" s="2" t="s">
         <v>5</v>
       </c>
@@ -42401,7 +42401,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1802" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1802" s="2" t="s">
         <v>5</v>
       </c>
@@ -42418,7 +42418,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1803" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1803" s="2" t="s">
         <v>5</v>
       </c>
@@ -42435,7 +42435,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1804" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1804" s="2" t="s">
         <v>5</v>
       </c>
@@ -42452,7 +42452,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1805" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1805" s="2" t="s">
         <v>5</v>
       </c>
@@ -42469,7 +42469,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1806" s="2" t="s">
         <v>5</v>
       </c>
@@ -42486,7 +42486,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1807" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" s="2" t="s">
         <v>5</v>
       </c>
@@ -42503,7 +42503,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1808" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1808" s="2" t="s">
         <v>5</v>
       </c>
@@ -42520,7 +42520,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1809" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1809" s="2" t="s">
         <v>5</v>
       </c>
@@ -42537,7 +42537,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1810" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1810" s="2" t="s">
         <v>5</v>
       </c>
@@ -42554,7 +42554,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1811" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1811" s="2" t="s">
         <v>5</v>
       </c>
@@ -42571,7 +42571,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1812" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1812" s="2" t="s">
         <v>5</v>
       </c>
@@ -42588,7 +42588,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1813" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1813" s="2" t="s">
         <v>5</v>
       </c>
@@ -42605,7 +42605,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1814" s="2" t="s">
         <v>5</v>
       </c>
@@ -42622,7 +42622,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1815" s="2" t="s">
         <v>5</v>
       </c>
@@ -42639,7 +42639,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1816" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1816" s="2" t="s">
         <v>5</v>
       </c>
@@ -42656,7 +42656,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1817" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1817" s="2" t="s">
         <v>5</v>
       </c>
@@ -42673,7 +42673,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1818" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1818" s="2" t="s">
         <v>5</v>
       </c>
@@ -42690,7 +42690,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1819" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1819" s="2" t="s">
         <v>5</v>
       </c>
@@ -42707,7 +42707,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1820" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1820" s="2" t="s">
         <v>5</v>
       </c>
@@ -42724,7 +42724,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1821" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1821" s="2" t="s">
         <v>5</v>
       </c>
@@ -42741,7 +42741,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1822" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1822" s="2" t="s">
         <v>5</v>
       </c>
@@ -42758,7 +42758,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1823" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1823" s="2" t="s">
         <v>5</v>
       </c>
@@ -42775,7 +42775,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1824" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1824" s="2" t="s">
         <v>5</v>
       </c>
@@ -42792,7 +42792,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1825" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1825" s="2" t="s">
         <v>5</v>
       </c>
@@ -42809,7 +42809,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1826" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1826" s="2" t="s">
         <v>5</v>
       </c>
@@ -42826,7 +42826,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1827" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1827" s="2" t="s">
         <v>5</v>
       </c>
@@ -42843,7 +42843,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1828" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1828" s="2" t="s">
         <v>5</v>
       </c>
@@ -42860,7 +42860,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1829" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1829" s="2" t="s">
         <v>5</v>
       </c>
@@ -42877,7 +42877,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1830" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1830" s="2" t="s">
         <v>5</v>
       </c>
@@ -42894,7 +42894,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1831" s="2" t="s">
         <v>5</v>
       </c>
@@ -42911,7 +42911,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1832" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1832" s="2" t="s">
         <v>5</v>
       </c>
@@ -42928,7 +42928,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1833" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1833" s="2" t="s">
         <v>5</v>
       </c>
@@ -42945,7 +42945,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1834" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1834" s="2" t="s">
         <v>5</v>
       </c>
@@ -42962,7 +42962,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1835" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1835" s="2" t="s">
         <v>5</v>
       </c>
@@ -42979,7 +42979,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1836" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1836" s="2" t="s">
         <v>5</v>
       </c>
@@ -42996,7 +42996,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1837" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1837" s="2" t="s">
         <v>5</v>
       </c>
@@ -43013,7 +43013,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1838" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1838" s="2" t="s">
         <v>5</v>
       </c>
@@ -43030,7 +43030,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1839" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1839" s="2" t="s">
         <v>5</v>
       </c>
@@ -43047,7 +43047,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1840" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1840" s="2" t="s">
         <v>5</v>
       </c>
@@ -43064,7 +43064,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1841" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1841" s="2" t="s">
         <v>5</v>
       </c>
@@ -43081,7 +43081,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1842" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1842" s="2" t="s">
         <v>5</v>
       </c>
@@ -43098,7 +43098,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1843" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1843" s="2" t="s">
         <v>5</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1844" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1844" s="2" t="s">
         <v>5</v>
       </c>
@@ -43132,7 +43132,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1845" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1845" s="2" t="s">
         <v>5</v>
       </c>
@@ -43149,7 +43149,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1846" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1846" s="2" t="s">
         <v>5</v>
       </c>
@@ -43166,7 +43166,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1847" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1847" s="2" t="s">
         <v>5</v>
       </c>
@@ -43183,7 +43183,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1848" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1848" s="2" t="s">
         <v>5</v>
       </c>
@@ -43200,7 +43200,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1849" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1849" s="2" t="s">
         <v>5</v>
       </c>
@@ -43217,7 +43217,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1850" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1850" s="2" t="s">
         <v>5</v>
       </c>
@@ -43234,7 +43234,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1851" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1851" s="2" t="s">
         <v>5</v>
       </c>
@@ -43251,7 +43251,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1852" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1852" s="2" t="s">
         <v>5</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1853" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1853" s="2" t="s">
         <v>5</v>
       </c>
@@ -43285,7 +43285,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1854" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1854" s="2" t="s">
         <v>5</v>
       </c>
@@ -43302,7 +43302,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1855" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1855" s="2" t="s">
         <v>5</v>
       </c>
@@ -43319,7 +43319,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1856" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1856" s="2" t="s">
         <v>5</v>
       </c>
@@ -43336,7 +43336,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1857" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1857" s="2" t="s">
         <v>5</v>
       </c>
@@ -43353,7 +43353,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1858" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1858" s="2" t="s">
         <v>5</v>
       </c>
@@ -43370,7 +43370,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1859" s="2" t="s">
         <v>5</v>
       </c>
@@ -43387,7 +43387,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1860" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1860" s="2" t="s">
         <v>5</v>
       </c>
@@ -43404,7 +43404,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1861" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1861" s="2" t="s">
         <v>5</v>
       </c>
@@ -43421,7 +43421,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1862" s="2" t="s">
         <v>5</v>
       </c>
@@ -43438,7 +43438,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1863" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1863" s="2" t="s">
         <v>5</v>
       </c>
@@ -43455,7 +43455,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1864" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1864" s="2" t="s">
         <v>5</v>
       </c>
@@ -43472,7 +43472,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1865" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1865" s="2" t="s">
         <v>5</v>
       </c>
@@ -43489,7 +43489,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1866" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1866" s="2" t="s">
         <v>5</v>
       </c>
@@ -43506,7 +43506,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1867" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1867" s="2" t="s">
         <v>5</v>
       </c>
@@ -43523,7 +43523,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1868" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1868" s="2" t="s">
         <v>5</v>
       </c>
@@ -43540,7 +43540,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1869" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1869" s="2" t="s">
         <v>5</v>
       </c>
@@ -43557,7 +43557,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1870" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1870" s="2" t="s">
         <v>5</v>
       </c>
@@ -43574,7 +43574,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1871" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1871" s="2" t="s">
         <v>5</v>
       </c>
@@ -43591,7 +43591,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1872" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1872" s="2" t="s">
         <v>5</v>
       </c>
@@ -43608,7 +43608,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1873" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1873" s="2" t="s">
         <v>5</v>
       </c>
@@ -43625,7 +43625,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1874" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1874" s="2" t="s">
         <v>5</v>
       </c>
@@ -43642,7 +43642,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1875" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1875" s="2" t="s">
         <v>5</v>
       </c>
@@ -43659,7 +43659,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1876" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1876" s="2" t="s">
         <v>5</v>
       </c>
@@ -43676,7 +43676,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1877" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1877" s="2" t="s">
         <v>5</v>
       </c>
@@ -43693,7 +43693,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1878" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1878" s="2" t="s">
         <v>5</v>
       </c>
@@ -43710,7 +43710,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1879" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1879" s="2" t="s">
         <v>5</v>
       </c>
@@ -43727,7 +43727,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1880" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1880" s="2" t="s">
         <v>5</v>
       </c>
@@ -43744,7 +43744,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1881" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1881" s="2" t="s">
         <v>5</v>
       </c>
@@ -43761,7 +43761,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1882" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1882" s="2" t="s">
         <v>5</v>
       </c>
@@ -43778,7 +43778,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1883" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1883" s="2" t="s">
         <v>5</v>
       </c>
@@ -43795,7 +43795,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1884" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1884" s="2" t="s">
         <v>5</v>
       </c>
@@ -43812,7 +43812,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1885" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1885" s="2" t="s">
         <v>5</v>
       </c>
@@ -43829,7 +43829,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1886" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1886" s="2" t="s">
         <v>5</v>
       </c>
@@ -43846,7 +43846,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1887" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1887" s="2" t="s">
         <v>5</v>
       </c>
@@ -43863,7 +43863,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1888" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1888" s="2" t="s">
         <v>5</v>
       </c>
@@ -43880,7 +43880,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1889" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1889" s="2" t="s">
         <v>5</v>
       </c>
@@ -43897,7 +43897,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1890" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1890" s="2" t="s">
         <v>5</v>
       </c>
@@ -43914,7 +43914,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1891" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1891" s="2" t="s">
         <v>5</v>
       </c>
@@ -43931,7 +43931,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1892" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1892" s="2" t="s">
         <v>5</v>
       </c>
@@ -43948,7 +43948,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1893" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1893" s="2" t="s">
         <v>5</v>
       </c>
@@ -43965,7 +43965,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1894" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1894" s="2" t="s">
         <v>5</v>
       </c>
@@ -43982,7 +43982,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1895" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1895" s="2" t="s">
         <v>5</v>
       </c>
@@ -43999,7 +43999,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1896" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1896" s="2" t="s">
         <v>5</v>
       </c>
@@ -44016,7 +44016,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1897" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1897" s="2" t="s">
         <v>5</v>
       </c>
@@ -44033,7 +44033,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1898" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1898" s="2" t="s">
         <v>5</v>
       </c>
@@ -44050,7 +44050,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1899" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1899" s="2" t="s">
         <v>5</v>
       </c>
@@ -44067,7 +44067,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1900" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1900" s="2" t="s">
         <v>5</v>
       </c>
@@ -44084,7 +44084,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1901" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1901" s="2" t="s">
         <v>5</v>
       </c>
@@ -44101,7 +44101,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1902" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1902" s="2" t="s">
         <v>5</v>
       </c>
@@ -44118,7 +44118,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1903" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1903" s="2" t="s">
         <v>5</v>
       </c>
@@ -44135,7 +44135,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1904" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1904" s="2" t="s">
         <v>5</v>
       </c>
@@ -44152,7 +44152,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1905" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1905" s="2" t="s">
         <v>5</v>
       </c>
@@ -44169,7 +44169,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1906" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1906" s="2" t="s">
         <v>5</v>
       </c>
@@ -44186,7 +44186,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1907" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1907" s="2" t="s">
         <v>5</v>
       </c>
@@ -44203,7 +44203,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1908" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1908" s="2" t="s">
         <v>5</v>
       </c>
@@ -44220,7 +44220,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1909" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1909" s="2" t="s">
         <v>5</v>
       </c>
@@ -44237,7 +44237,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1910" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1910" s="2" t="s">
         <v>5</v>
       </c>
@@ -44254,7 +44254,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1911" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1911" s="2" t="s">
         <v>5</v>
       </c>
@@ -44271,7 +44271,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1912" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1912" s="2" t="s">
         <v>5</v>
       </c>
@@ -44288,7 +44288,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1913" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1913" s="2" t="s">
         <v>5</v>
       </c>
@@ -44305,7 +44305,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1914" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1914" s="2" t="s">
         <v>5</v>
       </c>
@@ -44322,7 +44322,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1915" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1915" s="2" t="s">
         <v>5</v>
       </c>
@@ -44339,7 +44339,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1916" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1916" s="2" t="s">
         <v>5</v>
       </c>
@@ -44356,7 +44356,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1917" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1917" s="2" t="s">
         <v>5</v>
       </c>
@@ -46345,7 +46345,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="2034" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2034" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2034" s="2" t="s">
         <v>5</v>
       </c>
@@ -46362,7 +46362,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2035" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2035" s="2" t="s">
         <v>5</v>
       </c>
@@ -46379,7 +46379,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2036" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2036" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2036" s="2" t="s">
         <v>5</v>
       </c>
@@ -46396,7 +46396,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2037" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2037" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2037" s="2" t="s">
         <v>5</v>
       </c>
@@ -46413,7 +46413,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2038" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2038" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2038" s="2" t="s">
         <v>5</v>
       </c>
@@ -46430,7 +46430,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2039" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2039" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2039" s="2" t="s">
         <v>5</v>
       </c>
@@ -46447,7 +46447,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2040" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2040" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2040" s="2" t="s">
         <v>5</v>
       </c>
@@ -46464,7 +46464,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2041" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2041" s="2" t="s">
         <v>5</v>
       </c>
@@ -46481,7 +46481,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2042" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2042" s="2" t="s">
         <v>5</v>
       </c>
@@ -46498,7 +46498,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2043" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2043" s="2" t="s">
         <v>5</v>
       </c>
@@ -46515,7 +46515,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2044" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2044" s="2" t="s">
         <v>5</v>
       </c>
@@ -46532,7 +46532,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2045" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2045" s="2" t="s">
         <v>5</v>
       </c>
@@ -46549,7 +46549,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2046" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2046" s="2" t="s">
         <v>5</v>
       </c>
@@ -46566,7 +46566,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2047" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2047" s="2" t="s">
         <v>5</v>
       </c>
@@ -46583,7 +46583,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2048" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2048" s="2" t="s">
         <v>5</v>
       </c>
@@ -46600,7 +46600,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2049" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2049" s="2" t="s">
         <v>5</v>
       </c>
@@ -64620,7 +64620,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="3109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3109" s="2" t="s">
         <v>5</v>
       </c>
@@ -64641,7 +64641,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3110" s="2" t="s">
         <v>5</v>
       </c>
@@ -64662,7 +64662,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3111" s="2" t="s">
         <v>5</v>
       </c>
@@ -64683,7 +64683,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3112" s="2" t="s">
         <v>5</v>
       </c>
@@ -64704,7 +64704,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3113" s="2" t="s">
         <v>5</v>
       </c>
@@ -64725,7 +64725,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3114" s="2" t="s">
         <v>5</v>
       </c>
@@ -64746,7 +64746,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3115" s="2" t="s">
         <v>5</v>
       </c>
@@ -64767,7 +64767,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3116" s="2" t="s">
         <v>5</v>
       </c>
@@ -64788,7 +64788,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3117" s="2" t="s">
         <v>5</v>
       </c>
@@ -64809,7 +64809,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3118" s="2" t="s">
         <v>5</v>
       </c>
@@ -64830,7 +64830,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3119" s="2" t="s">
         <v>5</v>
       </c>
@@ -64851,7 +64851,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3120" s="2" t="s">
         <v>5</v>
       </c>
@@ -64872,7 +64872,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3121" s="2" t="s">
         <v>5</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3122" s="2" t="s">
         <v>5</v>
       </c>
@@ -64914,7 +64914,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3123" s="2" t="s">
         <v>5</v>
       </c>
@@ -64935,7 +64935,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3124" s="2" t="s">
         <v>5</v>
       </c>
@@ -64956,7 +64956,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3125" s="2" t="s">
         <v>5</v>
       </c>
@@ -64977,7 +64977,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3126" s="2" t="s">
         <v>5</v>
       </c>
@@ -64998,7 +64998,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3127" s="2" t="s">
         <v>5</v>
       </c>
@@ -65019,7 +65019,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3128" s="2" t="s">
         <v>5</v>
       </c>
@@ -65040,7 +65040,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3129" s="2" t="s">
         <v>5</v>
       </c>
@@ -65061,7 +65061,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3130" s="2" t="s">
         <v>5</v>
       </c>
@@ -65082,7 +65082,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3131" s="2" t="s">
         <v>5</v>
       </c>
@@ -65103,7 +65103,7 @@
         <v>NEF_DIAB</v>
       </c>
     </row>
-    <row r="3132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3132" s="2" t="s">
         <v>5</v>
       </c>
@@ -65124,7 +65124,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3133" s="2" t="s">
         <v>5</v>
       </c>
@@ -65145,7 +65145,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3134" s="2" t="s">
         <v>5</v>
       </c>
@@ -65166,7 +65166,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3135" s="2" t="s">
         <v>5</v>
       </c>
@@ -65187,7 +65187,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3136" s="2" t="s">
         <v>5</v>
       </c>
@@ -65208,7 +65208,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3137" s="2" t="s">
         <v>5</v>
       </c>
@@ -65229,7 +65229,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3138" s="2" t="s">
         <v>5</v>
       </c>
@@ -65250,7 +65250,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3139" s="2" t="s">
         <v>5</v>
       </c>
@@ -65271,7 +65271,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3140" s="2" t="s">
         <v>5</v>
       </c>
@@ -65292,7 +65292,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3141" s="2" t="s">
         <v>5</v>
       </c>
@@ -65313,7 +65313,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3142" s="2" t="s">
         <v>5</v>
       </c>
@@ -65334,7 +65334,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3143" s="2" t="s">
         <v>5</v>
       </c>
@@ -65355,7 +65355,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3144" s="2" t="s">
         <v>5</v>
       </c>
@@ -65376,7 +65376,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3145" s="2" t="s">
         <v>5</v>
       </c>
@@ -65397,7 +65397,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3146" s="2" t="s">
         <v>5</v>
       </c>
@@ -65418,7 +65418,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3147" s="2" t="s">
         <v>5</v>
       </c>
@@ -65439,7 +65439,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3148" s="2" t="s">
         <v>5</v>
       </c>
@@ -65460,7 +65460,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3149" s="2" t="s">
         <v>5</v>
       </c>
@@ -65481,7 +65481,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3150" s="2" t="s">
         <v>5</v>
       </c>
@@ -65502,7 +65502,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3151" s="2" t="s">
         <v>5</v>
       </c>
@@ -65523,7 +65523,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3152" s="2" t="s">
         <v>5</v>
       </c>
@@ -65544,7 +65544,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3153" s="2" t="s">
         <v>5</v>
       </c>
@@ -65565,7 +65565,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3154" s="2" t="s">
         <v>5</v>
       </c>
@@ -65586,7 +65586,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3155" s="2" t="s">
         <v>5</v>
       </c>
@@ -65607,7 +65607,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3156" s="2" t="s">
         <v>5</v>
       </c>
@@ -65628,7 +65628,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3157" s="2" t="s">
         <v>5</v>
       </c>
@@ -65649,7 +65649,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3158" s="2" t="s">
         <v>5</v>
       </c>
@@ -65670,7 +65670,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3159" s="2" t="s">
         <v>5</v>
       </c>
@@ -65691,7 +65691,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3160" s="2" t="s">
         <v>5</v>
       </c>
@@ -65712,7 +65712,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3161" s="2" t="s">
         <v>5</v>
       </c>
@@ -65733,7 +65733,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3162" s="2" t="s">
         <v>5</v>
       </c>
@@ -65754,7 +65754,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3163" s="2" t="s">
         <v>5</v>
       </c>
@@ -65775,7 +65775,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3164" s="2" t="s">
         <v>5</v>
       </c>
@@ -65796,7 +65796,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3165" s="2" t="s">
         <v>5</v>
       </c>
@@ -65817,7 +65817,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3166" s="2" t="s">
         <v>5</v>
       </c>
@@ -65838,7 +65838,7 @@
         <v>NEURO_DIAB</v>
       </c>
     </row>
-    <row r="3167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3167" s="2" t="s">
         <v>5</v>
       </c>
@@ -66420,7 +66420,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="3201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3201" s="2" t="s">
         <v>5</v>
       </c>
@@ -66441,7 +66441,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3202" s="2" t="s">
         <v>5</v>
       </c>
@@ -66462,7 +66462,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3203" s="2" t="s">
         <v>5</v>
       </c>
@@ -66483,7 +66483,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3204" s="2" t="s">
         <v>5</v>
       </c>
@@ -66504,7 +66504,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3205" s="2" t="s">
         <v>5</v>
       </c>
@@ -66525,7 +66525,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3206" s="2" t="s">
         <v>5</v>
       </c>
@@ -66546,7 +66546,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3207" s="2" t="s">
         <v>5</v>
       </c>
@@ -66567,7 +66567,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3208" s="2" t="s">
         <v>5</v>
       </c>
@@ -66588,7 +66588,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3209" s="2" t="s">
         <v>5</v>
       </c>
@@ -66609,7 +66609,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3210" s="2" t="s">
         <v>5</v>
       </c>
@@ -66630,7 +66630,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3211" s="2" t="s">
         <v>5</v>
       </c>
@@ -66651,7 +66651,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3212" s="2" t="s">
         <v>5</v>
       </c>
@@ -66672,7 +66672,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3213" s="2" t="s">
         <v>5</v>
       </c>
@@ -66693,7 +66693,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3214" s="2" t="s">
         <v>5</v>
       </c>
@@ -66714,7 +66714,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3215" s="2" t="s">
         <v>5</v>
       </c>
@@ -66735,7 +66735,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3216" s="2" t="s">
         <v>5</v>
       </c>
@@ -66756,7 +66756,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3217" s="2" t="s">
         <v>5</v>
       </c>
@@ -66777,7 +66777,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3218" s="2" t="s">
         <v>5</v>
       </c>
@@ -66798,7 +66798,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3219" s="2" t="s">
         <v>5</v>
       </c>
@@ -66819,7 +66819,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3220" s="2" t="s">
         <v>5</v>
       </c>
@@ -66840,7 +66840,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3221" s="2" t="s">
         <v>5</v>
       </c>
@@ -66861,7 +66861,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3222" s="2" t="s">
         <v>5</v>
       </c>
@@ -66882,7 +66882,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3223" s="2" t="s">
         <v>5</v>
       </c>
@@ -66903,7 +66903,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3224" s="2" t="s">
         <v>5</v>
       </c>
@@ -66924,7 +66924,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3225" s="2" t="s">
         <v>5</v>
       </c>
@@ -66945,7 +66945,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3226" s="2" t="s">
         <v>5</v>
       </c>
@@ -66966,7 +66966,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3227" s="2" t="s">
         <v>5</v>
       </c>
@@ -66987,7 +66987,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3228" s="2" t="s">
         <v>5</v>
       </c>
@@ -67008,7 +67008,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3229" s="2" t="s">
         <v>5</v>
       </c>
@@ -67029,7 +67029,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3230" s="2" t="s">
         <v>5</v>
       </c>
@@ -67050,7 +67050,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3231" s="2" t="s">
         <v>5</v>
       </c>
@@ -67071,7 +67071,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3232" s="2" t="s">
         <v>5</v>
       </c>
@@ -67092,7 +67092,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3233" s="2" t="s">
         <v>5</v>
       </c>
@@ -67113,7 +67113,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3234" s="2" t="s">
         <v>5</v>
       </c>
@@ -67134,7 +67134,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3235" s="2" t="s">
         <v>5</v>
       </c>
@@ -67155,7 +67155,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3236" s="2" t="s">
         <v>5</v>
       </c>
@@ -67176,7 +67176,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3237" s="2" t="s">
         <v>5</v>
       </c>
@@ -67197,7 +67197,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3238" s="2" t="s">
         <v>5</v>
       </c>
@@ -67218,7 +67218,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3239" s="2" t="s">
         <v>5</v>
       </c>
@@ -67239,7 +67239,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3240" s="2" t="s">
         <v>5</v>
       </c>
@@ -67260,7 +67260,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3241" s="2" t="s">
         <v>5</v>
       </c>
@@ -67281,7 +67281,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3242" s="2" t="s">
         <v>5</v>
       </c>
@@ -67302,7 +67302,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3243" s="2" t="s">
         <v>5</v>
       </c>
@@ -67323,7 +67323,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3244" s="2" t="s">
         <v>5</v>
       </c>
@@ -67344,7 +67344,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3245" s="2" t="s">
         <v>5</v>
       </c>
@@ -67365,7 +67365,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3246" s="2" t="s">
         <v>5</v>
       </c>
@@ -67386,7 +67386,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3247" s="2" t="s">
         <v>5</v>
       </c>
@@ -67407,7 +67407,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3248" s="2" t="s">
         <v>5</v>
       </c>
@@ -67428,7 +67428,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3249" s="2" t="s">
         <v>5</v>
       </c>
@@ -67449,7 +67449,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3250" s="2" t="s">
         <v>5</v>
       </c>
@@ -67470,7 +67470,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3251" s="2" t="s">
         <v>5</v>
       </c>
@@ -67491,7 +67491,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3252" s="2" t="s">
         <v>5</v>
       </c>
@@ -67512,7 +67512,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3253" s="2" t="s">
         <v>5</v>
       </c>
@@ -67533,7 +67533,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3254" s="2" t="s">
         <v>5</v>
       </c>
@@ -67554,7 +67554,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3255" s="2" t="s">
         <v>5</v>
       </c>
@@ -67575,7 +67575,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3256" s="2" t="s">
         <v>5</v>
       </c>
@@ -67596,7 +67596,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3257" s="2" t="s">
         <v>5</v>
       </c>
@@ -67617,7 +67617,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3258" s="2" t="s">
         <v>5</v>
       </c>
@@ -67638,7 +67638,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3259" s="2" t="s">
         <v>5</v>
       </c>
@@ -67659,7 +67659,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3260" s="2" t="s">
         <v>5</v>
       </c>
@@ -67680,7 +67680,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3261" s="2" t="s">
         <v>5</v>
       </c>
@@ -67701,7 +67701,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3262" s="2" t="s">
         <v>5</v>
       </c>
@@ -67722,7 +67722,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3263" s="2" t="s">
         <v>5</v>
       </c>
@@ -67743,7 +67743,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3264" s="2" t="s">
         <v>5</v>
       </c>
@@ -67764,7 +67764,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3265" s="2" t="s">
         <v>5</v>
       </c>
@@ -67785,7 +67785,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3266" s="2" t="s">
         <v>5</v>
       </c>
@@ -67806,7 +67806,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3267" s="2" t="s">
         <v>5</v>
       </c>
@@ -67827,7 +67827,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3268" s="2" t="s">
         <v>5</v>
       </c>
@@ -67848,7 +67848,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3269" s="2" t="s">
         <v>5</v>
       </c>
@@ -67869,7 +67869,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3270" s="2" t="s">
         <v>5</v>
       </c>
@@ -67890,7 +67890,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3271" s="2" t="s">
         <v>5</v>
       </c>
@@ -67911,7 +67911,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3272" s="2" t="s">
         <v>5</v>
       </c>
@@ -67932,7 +67932,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3273" s="2" t="s">
         <v>5</v>
       </c>
@@ -67953,7 +67953,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3274" s="2" t="s">
         <v>5</v>
       </c>
@@ -67974,7 +67974,7 @@
         <v>RTP_DM</v>
       </c>
     </row>
-    <row r="3275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3275" s="2" t="s">
         <v>5</v>
       </c>
@@ -68058,10 +68058,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F3280">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DM_ALTRES"/>
+        <filter val="DM1"/>
+        <filter val="DMG"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
